--- a/database/industries/madani/shamla/cashflow/quarterly.xlsx
+++ b/database/industries/madani/shamla/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\shamla\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\madani\shamla\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27918762-6298-4FEF-BB86-E5C0561D68B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21BB445-A69E-43E6-ABE7-9347EB87F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-02-13 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1399-08-28 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-02-11 (8)</t>
+  </si>
+  <si>
+    <t>1400-05-12 (4)</t>
+  </si>
+  <si>
+    <t>1400-08-24 (4)</t>
+  </si>
+  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,16 +142,22 @@
     <t>1402-02-27 (10)</t>
   </si>
   <si>
-    <t>1401-04-29</t>
-  </si>
-  <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-11-09 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (3)</t>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -722,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M57"/>
+  <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,9 +796,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,8 +816,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,8 +842,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,8 +868,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +892,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,8 +918,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,8 +944,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,8 +968,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -879,44 +1014,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,10 +1124,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,118 +1150,218 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>294958</v>
+      </c>
+      <c r="E12" s="15">
+        <v>379946</v>
+      </c>
+      <c r="F12" s="15">
+        <v>469394</v>
+      </c>
+      <c r="G12" s="15">
+        <v>297779</v>
+      </c>
+      <c r="H12" s="15">
+        <v>564499</v>
+      </c>
+      <c r="I12" s="15">
+        <v>568747</v>
+      </c>
+      <c r="J12" s="15">
+        <v>543876</v>
+      </c>
+      <c r="K12" s="15">
+        <v>386963</v>
+      </c>
+      <c r="L12" s="15">
         <v>446365</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>837364</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>545627</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>801833</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>820897</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>-238760</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>826896</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>1520833</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>680900</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>1545006</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1252229</v>
+      </c>
+      <c r="W12" s="15">
+        <v>777836</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-48359</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-150772</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-38256</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-161811</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>-115201</v>
+      </c>
+      <c r="L13" s="11">
         <v>969</v>
       </c>
-      <c r="E13" s="11">
+      <c r="M13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>-15926</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>-229066</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>-218327</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>50327</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
         <v>-216720</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>-162000</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>-74000</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>-50000</v>
+      </c>
+      <c r="W13" s="11">
+        <v>-141412</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>246599</v>
+      </c>
+      <c r="E14" s="17">
+        <v>379946</v>
+      </c>
+      <c r="F14" s="17">
+        <v>469393</v>
+      </c>
+      <c r="G14" s="17">
+        <v>147007</v>
+      </c>
+      <c r="H14" s="17">
+        <v>526243</v>
+      </c>
+      <c r="I14" s="17">
+        <v>406936</v>
+      </c>
+      <c r="J14" s="17">
+        <v>543876</v>
+      </c>
+      <c r="K14" s="17">
+        <v>271762</v>
+      </c>
+      <c r="L14" s="17">
         <v>447334</v>
       </c>
-      <c r="E14" s="17">
+      <c r="M14" s="17">
         <v>837365</v>
       </c>
-      <c r="F14" s="17">
+      <c r="N14" s="17">
         <v>529701</v>
       </c>
-      <c r="G14" s="17">
+      <c r="O14" s="17">
         <v>572767</v>
       </c>
-      <c r="H14" s="17">
+      <c r="P14" s="17">
         <v>602570</v>
       </c>
-      <c r="I14" s="17">
+      <c r="Q14" s="17">
         <v>-188433</v>
       </c>
-      <c r="J14" s="17">
+      <c r="R14" s="17">
         <v>826896</v>
       </c>
-      <c r="K14" s="17">
+      <c r="S14" s="17">
         <v>1304113</v>
       </c>
-      <c r="L14" s="17">
+      <c r="T14" s="17">
         <v>518900</v>
       </c>
-      <c r="M14" s="17">
+      <c r="U14" s="17">
         <v>1471006</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="17">
+        <v>1202229</v>
+      </c>
+      <c r="W14" s="17">
+        <v>636424</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1069,82 +1374,152 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>260</v>
+      </c>
+      <c r="E16" s="15">
+        <v>52</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>22</v>
+      </c>
+      <c r="H16" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>3669</v>
+      </c>
+      <c r="L16" s="15">
         <v>-1561</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>1741</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="N16" s="15">
+        <v>0</v>
+      </c>
+      <c r="O16" s="15">
         <v>10</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>-10</v>
       </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-10534</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-127690</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-79157</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-72008</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-42071</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-272566</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-183668</v>
+      </c>
+      <c r="K17" s="11">
+        <v>-455887</v>
+      </c>
+      <c r="L17" s="11">
         <v>-460360</v>
       </c>
-      <c r="E17" s="11">
+      <c r="M17" s="11">
         <v>-1281539</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>-828217</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>-438921</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>-571729</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>-268802</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>-565282</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>-417759</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>-226004</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>-416110</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>-369846</v>
+      </c>
+      <c r="W17" s="11">
+        <v>-968054</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -1163,24 +1538,54 @@
         <v>0</v>
       </c>
       <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
         <v>838129</v>
       </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1213,46 +1618,106 @@
       <c r="M19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+      <c r="U19" s="11">
+        <v>0</v>
+      </c>
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>-982</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-38156</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-2952</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-834</v>
+      </c>
+      <c r="H20" s="15">
+        <v>-367</v>
+      </c>
+      <c r="I20" s="15">
+        <v>-839</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>-1141</v>
+      </c>
+      <c r="L20" s="15">
         <v>-3113</v>
       </c>
-      <c r="E20" s="15">
+      <c r="M20" s="15">
         <v>-5034</v>
       </c>
-      <c r="F20" s="15">
+      <c r="N20" s="15">
         <v>-2982</v>
       </c>
-      <c r="G20" s="15">
+      <c r="O20" s="15">
         <v>-3486</v>
       </c>
-      <c r="H20" s="15">
+      <c r="P20" s="15">
         <v>-1178</v>
       </c>
-      <c r="I20" s="15">
+      <c r="Q20" s="15">
         <v>-8412</v>
       </c>
-      <c r="J20" s="15">
+      <c r="R20" s="15">
         <v>-599</v>
       </c>
-      <c r="K20" s="15">
+      <c r="S20" s="15">
         <v>-5951</v>
       </c>
-      <c r="L20" s="15">
+      <c r="T20" s="15">
         <v>-3237</v>
       </c>
-      <c r="M20" s="15">
+      <c r="U20" s="15">
         <v>-4168</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="15">
+        <v>-19126</v>
+      </c>
+      <c r="W20" s="15">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1285,10 +1750,40 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1321,154 +1816,304 @@
       <c r="M22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
+      <c r="S22" s="15">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>0</v>
+      </c>
+      <c r="W22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>108571</v>
+      </c>
+      <c r="K23" s="11">
+        <v>-108571</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
         <v>172503</v>
       </c>
-      <c r="F23" s="11">
-        <v>0</v>
-      </c>
-      <c r="G23" s="11">
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+      <c r="O23" s="11">
         <v>3685</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>-3685</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>369307</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R23" s="11">
+        <v>0</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="11">
+        <v>0</v>
+      </c>
+      <c r="V23" s="11">
+        <v>0</v>
+      </c>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>-2268</v>
+      </c>
+      <c r="F24" s="15">
+        <v>-6451</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-5471</v>
+      </c>
+      <c r="H24" s="15">
+        <v>-8122</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-20711</v>
+      </c>
+      <c r="J24" s="15">
+        <v>-35399</v>
+      </c>
+      <c r="K24" s="15">
+        <v>-123114</v>
+      </c>
+      <c r="L24" s="15">
         <v>-175665</v>
       </c>
-      <c r="E24" s="15">
+      <c r="M24" s="15">
         <v>41235</v>
       </c>
-      <c r="F24" s="15">
+      <c r="N24" s="15">
         <v>-50963</v>
       </c>
-      <c r="G24" s="15">
+      <c r="O24" s="15">
         <v>50963</v>
       </c>
-      <c r="H24" s="15">
+      <c r="P24" s="15">
         <v>-45995</v>
       </c>
-      <c r="I24" s="15">
+      <c r="Q24" s="15">
         <v>-80215</v>
       </c>
-      <c r="J24" s="15">
+      <c r="R24" s="15">
         <v>-97</v>
       </c>
-      <c r="K24" s="15">
+      <c r="S24" s="15">
         <v>-86003</v>
       </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
         <v>-545</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="15">
+        <v>-36300</v>
+      </c>
+      <c r="W24" s="15">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>74859</v>
+      </c>
+      <c r="L25" s="11">
         <v>386889</v>
       </c>
-      <c r="E25" s="11">
+      <c r="M25" s="11">
         <v>225229</v>
       </c>
-      <c r="F25" s="11">
+      <c r="N25" s="11">
         <v>94258</v>
       </c>
-      <c r="G25" s="11">
+      <c r="O25" s="11">
         <v>-94258</v>
       </c>
-      <c r="H25" s="11">
+      <c r="P25" s="11">
         <v>93971</v>
       </c>
-      <c r="I25" s="11">
+      <c r="Q25" s="11">
         <v>-93971</v>
       </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
         <v>131388</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>302336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-175810</v>
       </c>
       <c r="E26" s="15">
-        <v>0</v>
+        <v>-55870</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-288857</v>
       </c>
       <c r="G26" s="15">
+        <v>21906</v>
+      </c>
+      <c r="H26" s="15">
+        <v>-266431</v>
+      </c>
+      <c r="I26" s="15">
+        <v>104172</v>
+      </c>
+      <c r="J26" s="15">
+        <v>-317760</v>
+      </c>
+      <c r="K26" s="15">
+        <v>317760</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
         <v>-88439</v>
       </c>
-      <c r="H26" s="15">
+      <c r="P26" s="15">
         <v>88439</v>
       </c>
-      <c r="I26" s="15">
+      <c r="Q26" s="15">
         <v>-366720</v>
       </c>
-      <c r="J26" s="15">
+      <c r="R26" s="15">
         <v>-28438</v>
       </c>
-      <c r="K26" s="15">
+      <c r="S26" s="15">
         <v>-19697</v>
       </c>
-      <c r="L26" s="15">
+      <c r="T26" s="15">
         <v>-200576</v>
       </c>
-      <c r="M26" s="15">
+      <c r="U26" s="15">
         <v>248711</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="15">
+        <v>-162324</v>
+      </c>
+      <c r="W26" s="15">
+        <v>162324</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1501,17 +2146,47 @@
       <c r="M27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0</v>
+      </c>
+      <c r="U27" s="11">
+        <v>0</v>
+      </c>
+      <c r="V27" s="11">
+        <v>0</v>
+      </c>
+      <c r="W27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
         <v>0</v>
       </c>
       <c r="E28" s="15">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1537,10 +2212,40 @@
       <c r="M28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1573,154 +2278,304 @@
       <c r="M29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+      <c r="U29" s="11">
+        <v>0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>0</v>
+      </c>
+      <c r="W29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
+        <v>-12659</v>
+      </c>
+      <c r="E30" s="15">
+        <v>21576</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>68217</v>
+      </c>
+      <c r="J30" s="15">
+        <v>225</v>
+      </c>
+      <c r="K30" s="15">
+        <v>120123</v>
+      </c>
+      <c r="L30" s="15">
         <v>-62608</v>
       </c>
-      <c r="E30" s="15">
+      <c r="M30" s="15">
         <v>48127</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
         <v>744</v>
       </c>
-      <c r="H30" s="15">
+      <c r="P30" s="15">
         <v>116015</v>
       </c>
-      <c r="I30" s="15">
+      <c r="Q30" s="15">
         <v>117583</v>
       </c>
-      <c r="J30" s="15">
+      <c r="R30" s="15">
         <v>217413</v>
       </c>
-      <c r="K30" s="15">
+      <c r="S30" s="15">
         <v>-2537</v>
       </c>
-      <c r="L30" s="15">
+      <c r="T30" s="15">
         <v>50669</v>
       </c>
-      <c r="M30" s="15">
+      <c r="U30" s="15">
         <v>4082</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>23906</v>
+      </c>
+      <c r="E31" s="11">
+        <v>37551</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>73649</v>
+      </c>
+      <c r="H31" s="11">
+        <v>29466</v>
+      </c>
+      <c r="I31" s="11">
+        <v>43425</v>
+      </c>
+      <c r="J31" s="11">
+        <v>43687</v>
+      </c>
+      <c r="K31" s="11">
+        <v>50724</v>
+      </c>
+      <c r="L31" s="11">
         <v>17165</v>
       </c>
-      <c r="E31" s="11">
+      <c r="M31" s="11">
         <v>16585</v>
       </c>
-      <c r="F31" s="11">
+      <c r="N31" s="11">
         <v>5345</v>
       </c>
-      <c r="G31" s="11">
+      <c r="O31" s="11">
         <v>16779</v>
       </c>
-      <c r="H31" s="11">
+      <c r="P31" s="11">
         <v>11779</v>
       </c>
-      <c r="I31" s="11">
+      <c r="Q31" s="11">
         <v>13859</v>
       </c>
-      <c r="J31" s="11">
+      <c r="R31" s="11">
         <v>36731</v>
       </c>
-      <c r="K31" s="11">
+      <c r="S31" s="11">
         <v>47951</v>
       </c>
-      <c r="L31" s="11">
+      <c r="T31" s="11">
         <v>56919</v>
       </c>
-      <c r="M31" s="11">
+      <c r="U31" s="11">
         <v>35791</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="11">
+        <v>18417</v>
+      </c>
+      <c r="W31" s="11">
+        <v>25732</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-175819</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-164853</v>
+      </c>
+      <c r="F32" s="17">
+        <v>-377417</v>
+      </c>
+      <c r="G32" s="17">
+        <v>17264</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-287526</v>
+      </c>
+      <c r="I32" s="17">
+        <v>-78301</v>
+      </c>
+      <c r="J32" s="17">
+        <v>-384344</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-121578</v>
+      </c>
+      <c r="L32" s="17">
         <v>-299253</v>
       </c>
-      <c r="E32" s="17">
+      <c r="M32" s="17">
         <v>-781153</v>
       </c>
-      <c r="F32" s="17">
+      <c r="N32" s="17">
         <v>-782559</v>
       </c>
-      <c r="G32" s="17">
+      <c r="O32" s="17">
         <v>-552923</v>
       </c>
-      <c r="H32" s="17">
+      <c r="P32" s="17">
         <v>-312393</v>
       </c>
-      <c r="I32" s="17">
+      <c r="Q32" s="17">
         <v>520758</v>
       </c>
-      <c r="J32" s="17">
+      <c r="R32" s="17">
         <v>-340272</v>
       </c>
-      <c r="K32" s="17">
+      <c r="S32" s="17">
         <v>-483996</v>
       </c>
-      <c r="L32" s="17">
+      <c r="T32" s="17">
         <v>-322229</v>
       </c>
-      <c r="M32" s="17">
+      <c r="U32" s="17">
         <v>-851</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="17">
+        <v>-569179</v>
+      </c>
+      <c r="W32" s="17">
+        <v>-433283</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>70780</v>
+      </c>
+      <c r="E33" s="19">
+        <v>215093</v>
+      </c>
+      <c r="F33" s="19">
+        <v>91976</v>
+      </c>
+      <c r="G33" s="19">
+        <v>164271</v>
+      </c>
+      <c r="H33" s="19">
+        <v>238717</v>
+      </c>
+      <c r="I33" s="19">
+        <v>328635</v>
+      </c>
+      <c r="J33" s="19">
+        <v>159532</v>
+      </c>
+      <c r="K33" s="19">
+        <v>150184</v>
+      </c>
+      <c r="L33" s="19">
         <v>148081</v>
       </c>
-      <c r="E33" s="19">
+      <c r="M33" s="19">
         <v>56212</v>
       </c>
-      <c r="F33" s="19">
+      <c r="N33" s="19">
         <v>-252858</v>
       </c>
-      <c r="G33" s="19">
+      <c r="O33" s="19">
         <v>19844</v>
       </c>
-      <c r="H33" s="19">
+      <c r="P33" s="19">
         <v>290177</v>
       </c>
-      <c r="I33" s="19">
+      <c r="Q33" s="19">
         <v>332325</v>
       </c>
-      <c r="J33" s="19">
+      <c r="R33" s="19">
         <v>486624</v>
       </c>
-      <c r="K33" s="19">
+      <c r="S33" s="19">
         <v>820117</v>
       </c>
-      <c r="L33" s="19">
+      <c r="T33" s="19">
         <v>196671</v>
       </c>
-      <c r="M33" s="19">
+      <c r="U33" s="19">
         <v>1470155</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="19">
+        <v>633050</v>
+      </c>
+      <c r="W33" s="19">
+        <v>203141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1733,82 +2588,152 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>6147</v>
+      </c>
+      <c r="H35" s="15">
+        <v>51172</v>
+      </c>
+      <c r="I35" s="15">
+        <v>2681</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>43</v>
+      </c>
+      <c r="L35" s="15">
         <v>57342</v>
       </c>
-      <c r="E35" s="15">
+      <c r="M35" s="15">
         <v>3578</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
         <v>198200</v>
       </c>
-      <c r="J35" s="15">
+      <c r="R35" s="15">
         <v>59</v>
       </c>
-      <c r="K35" s="15">
+      <c r="S35" s="15">
         <v>60581</v>
       </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T35" s="15">
+        <v>0</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15">
+        <v>0</v>
+      </c>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
@@ -1833,162 +2758,312 @@
         <v>0</v>
       </c>
       <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
         <v>4</v>
       </c>
-      <c r="L37" s="15">
-        <v>0</v>
-      </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>-153644</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
         <v>-49680</v>
       </c>
-      <c r="H38" s="11">
+      <c r="P38" s="11">
         <v>49680</v>
       </c>
-      <c r="I38" s="11">
+      <c r="Q38" s="11">
         <v>-49680</v>
       </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E39" s="15">
+        <v>139000</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>180000</v>
+      </c>
+      <c r="I39" s="15">
+        <v>260000</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>130000</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
         <v>995000</v>
       </c>
-      <c r="F39" s="15">
+      <c r="N39" s="15">
         <v>530000</v>
       </c>
-      <c r="G39" s="15">
+      <c r="O39" s="15">
         <v>1102688</v>
       </c>
-      <c r="H39" s="15">
+      <c r="P39" s="15">
         <v>200000</v>
       </c>
-      <c r="I39" s="15">
+      <c r="Q39" s="15">
         <v>482840</v>
       </c>
-      <c r="J39" s="15">
+      <c r="R39" s="15">
         <v>160000</v>
       </c>
-      <c r="K39" s="15">
+      <c r="S39" s="15">
         <v>400000</v>
       </c>
-      <c r="L39" s="15">
+      <c r="T39" s="15">
         <v>370000</v>
       </c>
-      <c r="M39" s="15">
+      <c r="U39" s="15">
         <v>599999</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V39" s="15">
+        <v>600000</v>
+      </c>
+      <c r="W39" s="15">
+        <v>858991</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-41245</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-50681</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-56450</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-61190</v>
+      </c>
+      <c r="H40" s="11">
+        <v>-72557</v>
+      </c>
+      <c r="I40" s="11">
+        <v>-65760</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-84222</v>
+      </c>
+      <c r="K40" s="11">
+        <v>-122435</v>
+      </c>
+      <c r="L40" s="11">
         <v>-125131</v>
       </c>
-      <c r="E40" s="11">
+      <c r="M40" s="11">
         <v>-123044</v>
       </c>
-      <c r="F40" s="11">
+      <c r="N40" s="11">
         <v>-181325</v>
       </c>
-      <c r="G40" s="11">
+      <c r="O40" s="11">
         <v>-531661</v>
       </c>
-      <c r="H40" s="11">
+      <c r="P40" s="11">
         <v>-439270</v>
       </c>
-      <c r="I40" s="11">
+      <c r="Q40" s="11">
         <v>-579093</v>
       </c>
-      <c r="J40" s="11">
+      <c r="R40" s="11">
         <v>-454515</v>
       </c>
-      <c r="K40" s="11">
+      <c r="S40" s="11">
         <v>-217094</v>
       </c>
-      <c r="L40" s="11">
+      <c r="T40" s="11">
         <v>-386655</v>
       </c>
-      <c r="M40" s="11">
+      <c r="U40" s="11">
         <v>-224822</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V40" s="11">
+        <v>-540866</v>
+      </c>
+      <c r="W40" s="11">
+        <v>-688007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-4397</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-4127</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-9284</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-4546</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-7845</v>
+      </c>
+      <c r="I41" s="15">
+        <v>-5476</v>
+      </c>
+      <c r="J41" s="15">
+        <v>-10750</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-13959</v>
+      </c>
+      <c r="L41" s="15">
         <v>-14012</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>-8177</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>-26960</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>-53450</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>-44754</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>-53005</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>-43780</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>-61074</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>-48469</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>-29682</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>-109508</v>
+      </c>
+      <c r="W41" s="15">
+        <v>-135511</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -2021,10 +3096,40 @@
       <c r="M42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+      <c r="U42" s="11">
+        <v>0</v>
+      </c>
+      <c r="V42" s="11">
+        <v>0</v>
+      </c>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -2057,10 +3162,40 @@
       <c r="M43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15">
+        <v>0</v>
+      </c>
+      <c r="S43" s="15">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -2093,10 +3228,40 @@
       <c r="M44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
+      <c r="P44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>0</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>0</v>
+      </c>
+      <c r="U44" s="11">
+        <v>0</v>
+      </c>
+      <c r="V44" s="11">
+        <v>0</v>
+      </c>
+      <c r="W44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -2129,10 +3294,40 @@
       <c r="M45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+      <c r="O45" s="15">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15">
+        <v>0</v>
+      </c>
+      <c r="S45" s="15">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2165,10 +3360,40 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2201,10 +3426,40 @@
       <c r="M47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+      <c r="O47" s="15">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2237,10 +3492,40 @@
       <c r="M48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+      <c r="U48" s="11">
+        <v>0</v>
+      </c>
+      <c r="V48" s="11">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2273,260 +3558,500 @@
       <c r="M49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15">
+        <v>0</v>
+      </c>
+      <c r="S49" s="15">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-169599</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-168806</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-7485</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-95154</v>
+      </c>
+      <c r="H50" s="11">
+        <v>-595938</v>
+      </c>
+      <c r="I50" s="11">
+        <v>-225423</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-232020</v>
+      </c>
+      <c r="K50" s="11">
+        <v>-26354</v>
+      </c>
+      <c r="L50" s="11">
         <v>-300024</v>
       </c>
-      <c r="E50" s="11">
+      <c r="M50" s="11">
         <v>-762565</v>
       </c>
-      <c r="F50" s="11">
+      <c r="N50" s="11">
         <v>-1164</v>
       </c>
-      <c r="G50" s="11">
+      <c r="O50" s="11">
         <v>-278671</v>
       </c>
-      <c r="H50" s="11">
+      <c r="P50" s="11">
         <v>-208421</v>
       </c>
-      <c r="I50" s="11">
+      <c r="Q50" s="11">
         <v>-262584</v>
       </c>
-      <c r="J50" s="11">
-        <v>0</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="R50" s="11">
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
         <v>-601069</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>-309184</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>-1635683</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>-276225</v>
+      </c>
+      <c r="W50" s="11">
+        <v>-500813</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-115241</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-84614</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-73219</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-154743</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-445168</v>
+      </c>
+      <c r="I51" s="17">
+        <v>-33978</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-559012</v>
+      </c>
+      <c r="K51" s="17">
+        <v>199315</v>
+      </c>
+      <c r="L51" s="17">
         <v>-381825</v>
       </c>
-      <c r="E51" s="17">
+      <c r="M51" s="17">
         <v>-48852</v>
       </c>
-      <c r="F51" s="17">
+      <c r="N51" s="17">
         <v>320551</v>
       </c>
-      <c r="G51" s="17">
+      <c r="O51" s="17">
         <v>189226</v>
       </c>
-      <c r="H51" s="17">
+      <c r="P51" s="17">
         <v>-442765</v>
       </c>
-      <c r="I51" s="17">
+      <c r="Q51" s="17">
         <v>-263322</v>
       </c>
-      <c r="J51" s="17">
+      <c r="R51" s="17">
         <v>-338236</v>
       </c>
-      <c r="K51" s="17">
+      <c r="S51" s="17">
         <v>-418652</v>
       </c>
-      <c r="L51" s="17">
+      <c r="T51" s="17">
         <v>-374308</v>
       </c>
-      <c r="M51" s="17">
+      <c r="U51" s="17">
         <v>-1290188</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V51" s="17">
+        <v>-326599</v>
+      </c>
+      <c r="W51" s="17">
+        <v>-465340</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>-44461</v>
+      </c>
+      <c r="E52" s="19">
+        <v>130479</v>
+      </c>
+      <c r="F52" s="19">
+        <v>18757</v>
+      </c>
+      <c r="G52" s="19">
+        <v>9528</v>
+      </c>
+      <c r="H52" s="19">
+        <v>-206451</v>
+      </c>
+      <c r="I52" s="19">
+        <v>294657</v>
+      </c>
+      <c r="J52" s="19">
+        <v>-167460</v>
+      </c>
+      <c r="K52" s="19">
+        <v>117479</v>
+      </c>
+      <c r="L52" s="19">
         <v>-233744</v>
       </c>
-      <c r="E52" s="19">
+      <c r="M52" s="19">
         <v>7360</v>
       </c>
-      <c r="F52" s="19">
+      <c r="N52" s="19">
         <v>67693</v>
       </c>
-      <c r="G52" s="19">
+      <c r="O52" s="19">
         <v>209070</v>
       </c>
-      <c r="H52" s="19">
+      <c r="P52" s="19">
         <v>-152588</v>
       </c>
-      <c r="I52" s="19">
+      <c r="Q52" s="19">
         <v>69003</v>
       </c>
-      <c r="J52" s="19">
+      <c r="R52" s="19">
         <v>148388</v>
       </c>
-      <c r="K52" s="19">
+      <c r="S52" s="19">
         <v>401465</v>
       </c>
-      <c r="L52" s="19">
+      <c r="T52" s="19">
         <v>-177637</v>
       </c>
-      <c r="M52" s="19">
+      <c r="U52" s="19">
         <v>179967</v>
       </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V52" s="19">
+        <v>306451</v>
+      </c>
+      <c r="W52" s="19">
+        <v>-262199</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>215600</v>
+      </c>
+      <c r="E53" s="15">
+        <v>170338</v>
+      </c>
+      <c r="F53" s="15">
+        <v>301192</v>
+      </c>
+      <c r="G53" s="15">
+        <v>319949</v>
+      </c>
+      <c r="H53" s="15">
+        <v>350346</v>
+      </c>
+      <c r="I53" s="15">
+        <v>143873</v>
+      </c>
+      <c r="J53" s="15">
+        <v>472253</v>
+      </c>
+      <c r="K53" s="15">
+        <v>304793</v>
+      </c>
+      <c r="L53" s="15">
         <v>507933</v>
       </c>
-      <c r="E53" s="15">
+      <c r="M53" s="15">
         <v>315376</v>
       </c>
-      <c r="F53" s="15">
+      <c r="N53" s="15">
         <v>209224</v>
       </c>
-      <c r="G53" s="15">
+      <c r="O53" s="15">
         <v>276317</v>
       </c>
-      <c r="H53" s="15">
+      <c r="P53" s="15">
         <v>494905</v>
       </c>
-      <c r="I53" s="15">
-        <v>343805</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
         <v>408558</v>
       </c>
-      <c r="K53" s="15">
+      <c r="S53" s="15">
         <v>561404</v>
       </c>
-      <c r="L53" s="15">
+      <c r="T53" s="15">
         <v>964465</v>
       </c>
-      <c r="M53" s="15">
+      <c r="U53" s="15">
         <v>792020</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V53" s="15">
+        <v>998668</v>
+      </c>
+      <c r="W53" s="15">
+        <v>1309694</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
+        <v>-801</v>
+      </c>
+      <c r="E54" s="11">
+        <v>375</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>20869</v>
+      </c>
+      <c r="H54" s="11">
+        <v>-22</v>
+      </c>
+      <c r="I54" s="11">
+        <v>33723</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>85661</v>
+      </c>
+      <c r="L54" s="11">
         <v>41187</v>
       </c>
-      <c r="E54" s="11">
+      <c r="M54" s="11">
         <v>-113512</v>
       </c>
-      <c r="F54" s="11">
+      <c r="N54" s="11">
         <v>-600</v>
       </c>
-      <c r="G54" s="11">
+      <c r="O54" s="11">
         <v>9518</v>
       </c>
-      <c r="H54" s="11">
+      <c r="P54" s="11">
         <v>1488</v>
       </c>
-      <c r="I54" s="11">
+      <c r="Q54" s="11">
         <v>-4250</v>
       </c>
-      <c r="J54" s="11">
+      <c r="R54" s="11">
         <v>4458</v>
       </c>
-      <c r="K54" s="11">
+      <c r="S54" s="11">
         <v>1596</v>
       </c>
-      <c r="L54" s="11">
+      <c r="T54" s="11">
         <v>5192</v>
       </c>
-      <c r="M54" s="11">
+      <c r="U54" s="11">
         <v>26681</v>
       </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V54" s="11">
+        <v>4575</v>
+      </c>
+      <c r="W54" s="11">
+        <v>-2346</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>170338</v>
+      </c>
+      <c r="E55" s="17">
+        <v>301192</v>
+      </c>
+      <c r="F55" s="17">
+        <v>319949</v>
+      </c>
+      <c r="G55" s="17">
+        <v>350346</v>
+      </c>
+      <c r="H55" s="17">
+        <v>143873</v>
+      </c>
+      <c r="I55" s="17">
+        <v>472253</v>
+      </c>
+      <c r="J55" s="17">
+        <v>304793</v>
+      </c>
+      <c r="K55" s="17">
+        <v>507933</v>
+      </c>
+      <c r="L55" s="17">
         <v>315376</v>
       </c>
-      <c r="E55" s="17">
+      <c r="M55" s="17">
         <v>209224</v>
       </c>
-      <c r="F55" s="17">
+      <c r="N55" s="17">
         <v>276317</v>
       </c>
-      <c r="G55" s="17">
+      <c r="O55" s="17">
         <v>494905</v>
       </c>
-      <c r="H55" s="17">
+      <c r="P55" s="17">
         <v>343805</v>
       </c>
-      <c r="I55" s="17">
+      <c r="Q55" s="17">
         <v>408558</v>
       </c>
-      <c r="J55" s="17">
+      <c r="R55" s="17">
         <v>561404</v>
       </c>
-      <c r="K55" s="17">
+      <c r="S55" s="17">
         <v>964465</v>
       </c>
-      <c r="L55" s="17">
+      <c r="T55" s="17">
         <v>792020</v>
       </c>
-      <c r="M55" s="17">
+      <c r="U55" s="17">
         <v>998668</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V55" s="17">
+        <v>1309694</v>
+      </c>
+      <c r="W55" s="17">
+        <v>1045149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>53867</v>
+      </c>
+      <c r="H56" s="11">
+        <v>96133</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>360886</v>
+      </c>
+      <c r="L56" s="11">
         <v>59114</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>-60963</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11">
         <v>1603501</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>-2341</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>1601160</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>-1601160</v>
       </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11">
+        <v>0</v>
+      </c>
+      <c r="V56" s="11">
+        <v>0</v>
+      </c>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2539,6 +4064,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
